--- a/EmployeeDetails.xlsx
+++ b/EmployeeDetails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -34,18 +34,9 @@
     <t>self_or_cab</t>
   </si>
   <si>
-    <t>oneway_bothways</t>
-  </si>
-  <si>
-    <t>amount_pwd</t>
-  </si>
-  <si>
     <t xml:space="preserve">enterprise_ID </t>
   </si>
   <si>
-    <t>distance(km)</t>
-  </si>
-  <si>
     <t>Address(society,area,sub-urb,city)</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>Soham</t>
   </si>
   <si>
-    <t>Thatha</t>
-  </si>
-  <si>
     <t>Abhishek Kumar</t>
   </si>
   <si>
@@ -113,6 +101,39 @@
   </si>
   <si>
     <t>dummy.dummy</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>Anugraham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vani </t>
+  </si>
+  <si>
+    <t>hihihihi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinchwad,Maharashtra </t>
+  </si>
+  <si>
+    <t>qqqq</t>
+  </si>
+  <si>
+    <t>uuuuu</t>
+  </si>
+  <si>
+    <t>Aundh, Pune</t>
+  </si>
+  <si>
+    <t>Vasai,Maharashtra</t>
+  </si>
+  <si>
+    <t>Heloo</t>
+  </si>
+  <si>
+    <t>Rajat Bakshi</t>
   </si>
 </sst>
 </file>
@@ -454,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,37 +487,32 @@
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -507,163 +523,253 @@
         <v>11781577</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>11452368</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>12547836</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>12345678</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>12345678</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>12345678</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
       </c>
       <c r="C8">
         <v>12345678</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>12345678</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>12345678</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>12345678</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>1478562</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>147852</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>78945123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
